--- a/db_design.xlsx
+++ b/db_design.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26803"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WAQAS-SCS\Desktop\Hafiz\laravel\taxikone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp_7_4\htdocs\taxikone\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CAD317-E450-4684-A3D5-29CE8DDCFD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>ID_Card</t>
   </si>
@@ -148,12 +149,51 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>rides</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>payments</t>
+  </si>
+  <si>
+    <t>commission</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>Finance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,24 +536,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="30.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -524,7 +564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -535,7 +575,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>102</v>
       </c>
@@ -546,7 +586,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -563,7 +603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -580,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -597,7 +637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -614,7 +654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -631,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -648,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -665,7 +705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -682,7 +722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -699,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>9</v>
       </c>
@@ -716,7 +756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -733,7 +773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>11</v>
       </c>
@@ -750,7 +790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
@@ -765,7 +805,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
@@ -780,7 +820,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -795,7 +835,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E28" s="1">
         <f>SUM(E25:E27)</f>
         <v>510</v>
@@ -808,30 +848,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="29.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -839,199 +885,235 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>27</v>
-      </c>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>12</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/db_design.xlsx
+++ b/db_design.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26803"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp_7_4\htdocs\taxikone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WAQAS-SCS\Desktop\Hafiz\laravel\taxikone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CAD317-E450-4684-A3D5-29CE8DDCFD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>ID_Card</t>
   </si>
@@ -188,12 +187,15 @@
   </si>
   <si>
     <t>Finance</t>
+  </si>
+  <si>
+    <t>driver_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -536,24 +538,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -575,7 +577,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>102</v>
       </c>
@@ -586,7 +588,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -603,7 +605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -620,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -637,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -654,7 +656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -671,7 +673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -688,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -705,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -722,7 +724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -739,7 +741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>9</v>
       </c>
@@ -756,7 +758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -773,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>11</v>
       </c>
@@ -790,7 +792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
@@ -805,7 +807,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
@@ -820,7 +822,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -835,7 +837,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E28" s="1">
         <f>SUM(E25:E27)</f>
         <v>510</v>
@@ -848,25 +850,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5546875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="29.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -877,7 +879,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -885,7 +887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -902,7 +904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -913,7 +915,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -921,7 +923,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -929,7 +931,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -943,7 +945,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -954,7 +956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -968,7 +970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -979,7 +981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -987,7 +989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -995,7 +997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1003,7 +1005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1011,7 +1013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1027,88 +1029,95 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C18" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C25" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
     </row>

--- a/db_design.xlsx
+++ b/db_design.xlsx
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
